--- a/Word Processing 25092023/Excel.xlsx
+++ b/Word Processing 25092023/Excel.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Management" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
   <si>
     <t>No</t>
   </si>
@@ -52,9 +53,6 @@
     <t>Bùi Văn Thách</t>
   </si>
   <si>
-    <t>RAD</t>
-  </si>
-  <si>
     <t>Terminated</t>
   </si>
   <si>
@@ -64,18 +62,12 @@
     <t>Đặng Văn Phan</t>
   </si>
   <si>
-    <t>SZD</t>
-  </si>
-  <si>
     <t>AD739</t>
   </si>
   <si>
     <t>Trần Thị Thùy An</t>
   </si>
   <si>
-    <t>ZD</t>
-  </si>
-  <si>
     <t>AD084</t>
   </si>
   <si>
@@ -181,21 +173,6 @@
     <t>Chị</t>
   </si>
   <si>
-    <t>01-10-2022</t>
-  </si>
-  <si>
-    <t>01-07-2022</t>
-  </si>
-  <si>
-    <t>01-08-2022</t>
-  </si>
-  <si>
-    <t>01-07-2023</t>
-  </si>
-  <si>
-    <t>01-04-2023</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -230,6 +207,51 @@
   </si>
   <si>
     <t>chị</t>
+  </si>
+  <si>
+    <t>01/10/2022</t>
+  </si>
+  <si>
+    <t>01/07/2022</t>
+  </si>
+  <si>
+    <t>01/08/2022</t>
+  </si>
+  <si>
+    <t>01/07/2023</t>
+  </si>
+  <si>
+    <t>01/04/2023</t>
+  </si>
+  <si>
+    <t>Phó Giám Đốc Kinh Doanh Vùng</t>
+  </si>
+  <si>
+    <t>Giám Đốc Kinh Doanh Khu Vực Cấp Cao</t>
+  </si>
+  <si>
+    <t>Giám Đốc Kinh Doanh Khu Vực</t>
+  </si>
+  <si>
+    <t>Chung Thanh Trúc</t>
+  </si>
+  <si>
+    <t>09/2023/ THKT-PHL-AD</t>
+  </si>
+  <si>
+    <t>Phạm Minh Hoàng</t>
+  </si>
+  <si>
+    <t>10/2023/ THKT-PHL-AD</t>
+  </si>
+  <si>
+    <t>Lê Nguyễn Ánh Nguyệt</t>
+  </si>
+  <si>
+    <t>11/2023/ THKT-PHL-AD</t>
+  </si>
+  <si>
+    <t>Lữ Minh Tâm</t>
   </si>
 </sst>
 </file>
@@ -382,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -428,6 +450,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -712,7 +735,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B1" sqref="B1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -723,7 +746,7 @@
     <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="50.26953125" bestFit="1" customWidth="1"/>
@@ -737,22 +760,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -767,16 +790,16 @@
         <v>5</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
@@ -784,13 +807,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -799,10 +822,10 @@
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="I2" s="4">
         <v>44025</v>
@@ -814,13 +837,13 @@
         <v>45040</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="O2" s="15">
         <v>25677244</v>
@@ -831,25 +854,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" s="7">
         <v>44274</v>
@@ -861,13 +884,13 @@
         <v>45016</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="O3" s="15">
         <v>87274396</v>
@@ -878,25 +901,25 @@
         <v>6</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
         <v>44713</v>
@@ -908,13 +931,13 @@
         <v>45199</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="O4" s="15">
         <v>25388467</v>
@@ -925,25 +948,25 @@
         <v>7</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
         <v>44313</v>
@@ -955,13 +978,13 @@
         <v>44985</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>52</v>
+        <v>24</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="O5" s="15">
         <v>48355440</v>
@@ -972,25 +995,25 @@
         <v>8</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
         <v>44603</v>
@@ -1002,13 +1025,13 @@
         <v>45199</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" t="s">
-        <v>54</v>
+        <v>32</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="O6" s="15">
         <v>121984314</v>
@@ -1019,25 +1042,25 @@
         <v>9</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
         <v>44287</v>
@@ -1049,13 +1072,13 @@
         <v>45107</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" t="s">
-        <v>52</v>
+        <v>33</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="O7" s="15">
         <v>127085510</v>
@@ -1066,25 +1089,25 @@
         <v>10</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
         <v>44546</v>
@@ -1096,13 +1119,13 @@
         <v>45196</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" t="s">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="O8" s="15">
         <v>292379901</v>
@@ -1113,25 +1136,25 @@
         <v>11</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="7">
         <v>44351</v>
@@ -1143,13 +1166,13 @@
         <v>45016</v>
       </c>
       <c r="L9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="O9" s="15">
         <v>37365557</v>
@@ -1162,4 +1185,154 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>